--- a/results/I3_N5_M2_T30_C100_DepLowerLeft_s2_P3_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepLowerLeft_s2_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1590.783929801069</v>
+        <v>2292.996863021594</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005000114440917969</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.61003287482063</v>
+        <v>27.21363927694955</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.125424931602671</v>
+        <v>12.28173377703811</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.119321857853205</v>
+        <v>12.06495752168237</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1340.119999999998</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>214.06</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17.72653447714343</v>
+        <v>17.71826622296189</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>18.39136528268722</v>
+        <v>18.38309702850568</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>22.99312545677591</v>
+        <v>3.132299474826759</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>6.125424931602669</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15.95786265908334</v>
+        <v>19.67685125555192</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>26.12542493160267</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1071,10 +1071,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1085,10 +1085,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1099,10 +1099,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1113,10 +1113,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1127,15 +1127,85 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>87.59500000000058</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>75.8750000000006</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>74.39500000000058</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10">
@@ -1271,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>75.07500000000057</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11">
@@ -1282,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>83.23000000000059</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
@@ -1293,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>192.0400000000005</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13">
@@ -1304,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>177.55</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14">
@@ -1315,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>178.1100000000002</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15">
@@ -1326,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>179.6100000000003</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>185.0800000000007</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17">
@@ -1348,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>147.3399999999997</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -1359,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>159.2049999999997</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
@@ -1370,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>140.4299999999997</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -1381,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>157.7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1392,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>152.9949999999997</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -1403,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>106.1700000000004</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
@@ -1414,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>112.4900000000004</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -1425,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.5700000000004</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
@@ -1436,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>110.05</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
@@ -1447,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>107.6750000000004</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
@@ -1458,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>46.62000000000073</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28">
@@ -1469,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>41.47500000000073</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>37.92500000000073</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30">
@@ -1491,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>39.65500000000073</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>43.76000000000073</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32">
@@ -1513,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>192.0400000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1524,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>177.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1535,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>178.1099999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1546,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>179.6099999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1557,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>185.0800000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1568,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>147.3399999999997</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38">
@@ -1579,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>159.2049999999997</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39">
@@ -1590,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>140.4299999999997</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40">
@@ -1601,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>157.7</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41">
@@ -1612,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>152.9949999999997</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>92.04000000000025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1670,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>77.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1681,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>78.1099999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1692,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>79.6099999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1703,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>85.08000000000041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1714,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>47.33999999999972</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8">
@@ -1725,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>59.20499999999973</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9">
@@ -1736,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>40.42999999999972</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>57.69999999999999</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11">
@@ -1758,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>52.99499999999972</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1816,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.635</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1827,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.825</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1838,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.09</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1849,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1860,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1871,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1882,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1893,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1904,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.07</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1915,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -1926,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -1937,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -1948,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -1959,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1970,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
@@ -1981,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
@@ -1992,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -2003,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
@@ -2014,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -2025,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5.615</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2036,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2.875</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2047,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2058,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2069,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.04</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2110,7 +2180,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2121,7 +2191,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2132,7 +2202,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2143,7 +2213,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2154,7 +2224,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2165,7 +2235,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2176,7 +2246,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2187,7 +2257,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2198,7 +2268,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2209,7 +2279,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -2220,7 +2290,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2231,7 +2301,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
@@ -2242,7 +2312,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
@@ -2253,7 +2323,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
         <v>4</v>
@@ -2264,7 +2334,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" t="n">
         <v>5</v>
